--- a/Damage Summary Report.xlsx
+++ b/Damage Summary Report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Damage Summary Report November2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+  <si>
+    <t>Damage Summary Report November2017</t>
   </si>
   <si>
     <t>No.</t>
@@ -41,6 +41,18 @@
     <t>Item Description</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Serial No.</t>
+  </si>
+  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -69,6 +81,291 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-06-1001</t>
+  </si>
+  <si>
+    <t>Furniture, Fixtures and Equipment</t>
+  </si>
+  <si>
+    <t>Marianita Tabilla</t>
+  </si>
+  <si>
+    <t>HDD 500GB</t>
+  </si>
+  <si>
+    <t>Western Digital</t>
+  </si>
+  <si>
+    <t>WD5000AADS-57S9B1</t>
+  </si>
+  <si>
+    <t>WCAV9M637403</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 </t>
+  </si>
+  <si>
+    <t>Jason Flor</t>
+  </si>
+  <si>
+    <t>-Slow processing of App Files( It takes minutes to process)
+-Suddenly the screen turned blue (BSOD)</t>
+  </si>
+  <si>
+    <t>-HDD Health 12%
+-Tried several repair and reformat of operating system but the  performance is running low</t>
+  </si>
+  <si>
+    <t>-Use temporary spare HDD
+-Purchase new HDD</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-07-1001</t>
+  </si>
+  <si>
+    <t>All Trading Personnel</t>
+  </si>
+  <si>
+    <t>LED TV 40'</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>IT20190315</t>
+  </si>
+  <si>
+    <t>Caesariane Jo</t>
+  </si>
+  <si>
+    <t>Black out screen</t>
+  </si>
+  <si>
+    <t>if you turn off the TV, after a few minutes it automatically turn off/ blackout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-07-1002</t>
+  </si>
+  <si>
+    <t>IT20190364</t>
+  </si>
+  <si>
+    <t>Joemar De Los Santos</t>
+  </si>
+  <si>
+    <t>if you turn of the TV, after a few minutes it automatically turn off/ blackout</t>
+  </si>
+  <si>
+    <t>for check up/ repair</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-07-1003</t>
+  </si>
+  <si>
+    <t>External Hard Drive 1TB</t>
+  </si>
+  <si>
+    <t>SEAGATE</t>
+  </si>
+  <si>
+    <t>SRD00F1</t>
+  </si>
+  <si>
+    <t>NA9VR3ZD</t>
+  </si>
+  <si>
+    <t>Lost July 13, 2020 when we process the back up files to the external drive it does not function</t>
+  </si>
+  <si>
+    <t>The hard drive cannot open? Ticking or clicking sound (Scratching)</t>
+  </si>
+  <si>
+    <t>Unrepairable/Physical damage on internal platter</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-09-1001</t>
+  </si>
+  <si>
+    <t>Jonah Faye Benares</t>
+  </si>
+  <si>
+    <t>Laptop 14inches, Intel Core i5-5200U CPU @ 2.20GHz, 4GB RAM, 1TB HDD</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>NXV9USP018602033587600</t>
+  </si>
+  <si>
+    <t>I arrived at the office and immediately turned on my laptop. When I use the mouse and keyboard to check it, it doesn't respond well and some parts are blinking. I had Jushkyle checked it, he restarted twice and it was fine. But after a while it came back again. Already tried two different mouse and track pad, also disabled the 3rd party keyboard and used its built in keyboard but it's still the same. Also tried formatting it but wasn't done because I cannot control it anymore.</t>
+  </si>
+  <si>
+    <t>Not responding well.</t>
+  </si>
+  <si>
+    <t>To be repaired to check the source of the damage (software of hardware).</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2020-11-1001</t>
+  </si>
+  <si>
+    <t>Alma Bella  Gabitoya</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>IT20190295</t>
+  </si>
+  <si>
+    <t>Alma Bella Redocto Gabitoya</t>
+  </si>
+  <si>
+    <t>The VGA is not functioning well.</t>
+  </si>
+  <si>
+    <t>The Monitor is not clear</t>
+  </si>
+  <si>
+    <t>Change the VGA</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2021-01-1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babylyn Providencia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Cord </t>
+  </si>
+  <si>
+    <t>IT20190388</t>
+  </si>
+  <si>
+    <t>2019-10-08</t>
+  </si>
+  <si>
+    <t>Babylyn Providencia</t>
+  </si>
+  <si>
+    <t>unable to print</t>
+  </si>
+  <si>
+    <t>-The pc/laptop cant detect the cord.
+-Tried the cord to different printer and still cant detect it.</t>
+  </si>
+  <si>
+    <t>Replace item</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2021-02-1001</t>
+  </si>
+  <si>
+    <t>Syndey Sinoro</t>
+  </si>
+  <si>
+    <t>UPS 650VA</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Back UPS 650</t>
+  </si>
+  <si>
+    <t>9B1646A05761</t>
+  </si>
+  <si>
+    <t>malfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ups have constant beeping generally means the ups is very low on battery power and battery did not charge anymore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace new battery </t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2021-03-1001</t>
+  </si>
+  <si>
+    <t>Ruth Jan Destacamento</t>
+  </si>
+  <si>
+    <t>UPS 720VA</t>
+  </si>
+  <si>
+    <t>ILogic</t>
+  </si>
+  <si>
+    <t>Blazer 720VA</t>
+  </si>
+  <si>
+    <t>All the equipment of Ms. Ruth shutdown in times of brownout.</t>
+  </si>
+  <si>
+    <t>The UPS is not charging.</t>
+  </si>
+  <si>
+    <t>Replace Battery</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2021-03-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zyndyryn </t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>IT20190250</t>
+  </si>
+  <si>
+    <t>All the equipment of Ms. Zyndyryn shutdown in times of brownout. 
+Ms. Zyndyryn and Ms. Marian shares UPS which makes the battery to drain.</t>
+  </si>
+  <si>
+    <t>Replace battery</t>
   </si>
 </sst>
 </file>
@@ -136,9 +433,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -445,7 +751,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -455,83 +761,655 @@
   <cols>
     <col min="1" max="1" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="14.996338" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.282959" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.426514" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.426514" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="37.8479" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.996094" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15.996094" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15.996094" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="13.139648" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12.139893" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="26.422119" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="27.421875" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="14.139404" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="81.265869" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15.996094" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15.996094" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13.139648" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="568.575439" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="135.53833" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="85.979004" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="7.426758" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>231701504407</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U12" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Damage Summary Report.xlsx
+++ b/Damage Summary Report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
-  <si>
-    <t>Damage Summary Report November2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+  <si>
+    <t>Damage Summary Report December2021</t>
   </si>
   <si>
     <t>No.</t>
@@ -83,28 +83,25 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-06-1001</t>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-01-1001</t>
   </si>
   <si>
     <t>Furniture, Fixtures and Equipment</t>
   </si>
   <si>
-    <t>Marianita Tabilla</t>
-  </si>
-  <si>
-    <t>HDD 500GB</t>
-  </si>
-  <si>
-    <t>Western Digital</t>
-  </si>
-  <si>
-    <t>WD5000AADS-57S9B1</t>
-  </si>
-  <si>
-    <t>WCAV9M637403</t>
+    <t>Gebby Jalandoni</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>IT20190305</t>
   </si>
   <si>
     <t>pc/s</t>
@@ -113,28 +110,76 @@
     <t xml:space="preserve">0.00 </t>
   </si>
   <si>
+    <t>All the equipment of Ms. Gebby shutdown in times of brownout.</t>
+  </si>
+  <si>
+    <t>The UPS is not charging.</t>
+  </si>
+  <si>
+    <t>Replace Battery</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-01-1002</t>
+  </si>
+  <si>
+    <t>Jonah Benares</t>
+  </si>
+  <si>
+    <t>Laptop 14inches, Intel Core i5-5200U CPU @ 2.20GHz, 4GB RAM, 1TB HDD</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>NXV9USP018602033587600</t>
+  </si>
+  <si>
     <t>Jason Flor</t>
   </si>
   <si>
-    <t>-Slow processing of App Files( It takes minutes to process)
--Suddenly the screen turned blue (BSOD)</t>
-  </si>
-  <si>
-    <t>-HDD Health 12%
--Tried several repair and reformat of operating system but the  performance is running low</t>
-  </si>
-  <si>
-    <t>-Use temporary spare HDD
--Purchase new HDD</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-07-1001</t>
-  </si>
-  <si>
-    <t>All Trading Personnel</t>
+    <t>Laptop is very slow to use or laggy even when just opening apps</t>
+  </si>
+  <si>
+    <t>Upon assessment, the RAM (memory), CPU (processor) and Hard Disk are the poorest performing components that's why the laptop is lagging so much.</t>
+  </si>
+  <si>
+    <t>Replace New Laptop</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-01-1003</t>
+  </si>
+  <si>
+    <t>Krystal Gayle Tagalog</t>
+  </si>
+  <si>
+    <t>iLogic</t>
+  </si>
+  <si>
+    <t>IT-20190234</t>
+  </si>
+  <si>
+    <t>Malfunction</t>
+  </si>
+  <si>
+    <t>All the equipment of Ms. Gayle shutdown in times of brownout.</t>
+  </si>
+  <si>
+    <t>Replace new battery</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-01-1004</t>
+  </si>
+  <si>
+    <t>Trading Department</t>
   </si>
   <si>
     <t>LED TV 40'</t>
@@ -143,229 +188,1124 @@
     <t>TCL</t>
   </si>
   <si>
-    <t>IT20190315</t>
-  </si>
-  <si>
-    <t>Caesariane Jo</t>
-  </si>
-  <si>
-    <t>Black out screen</t>
-  </si>
-  <si>
-    <t>if you turn off the TV, after a few minutes it automatically turn off/ blackout</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-07-1002</t>
-  </si>
-  <si>
-    <t>IT20190364</t>
-  </si>
-  <si>
-    <t>Joemar De Los Santos</t>
-  </si>
-  <si>
-    <t>if you turn of the TV, after a few minutes it automatically turn off/ blackout</t>
-  </si>
-  <si>
-    <t>for check up/ repair</t>
-  </si>
-  <si>
-    <t>2020-07-22</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-07-1003</t>
+    <t>LED40D2900</t>
+  </si>
+  <si>
+    <t>IT20190298 / 1709AFY131755H00024</t>
+  </si>
+  <si>
+    <t>Imelda Espera</t>
+  </si>
+  <si>
+    <t>TV Suddenly goes black or turned off due to Power surges cause outside Electric Post Incident</t>
+  </si>
+  <si>
+    <t>Inactive Power Supply or  bad power board or failed backlight due to power surges</t>
+  </si>
+  <si>
+    <t>For Job Order to TV Service Center</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-02-1001</t>
+  </si>
+  <si>
+    <t>Traders</t>
+  </si>
+  <si>
+    <t>LED40D2700</t>
+  </si>
+  <si>
+    <t>IT20190364 / 1601AFY123095P-0373</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-02-1002</t>
+  </si>
+  <si>
+    <t>Glenn Paul Toledo</t>
+  </si>
+  <si>
+    <t>CPU Intel(R) Core(TM) i3-4170 , 4GB RAM, 64-bit OS</t>
+  </si>
+  <si>
+    <t>IT20190301</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>0.00 PHP</t>
+  </si>
+  <si>
+    <t>PC is laggy</t>
+  </si>
+  <si>
+    <t>no damage done to the equipment but need to upgrade to avoid delay in our work/task and in creating systems</t>
+  </si>
+  <si>
+    <t>Upgrade RAM</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-02-1003</t>
+  </si>
+  <si>
+    <t>Stephine Severino</t>
+  </si>
+  <si>
+    <t>Intel Core i3-4170 CPU @3.70GHz, 4GB RAM, 500GB HDD</t>
+  </si>
+  <si>
+    <t>ITBCD1033</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-03-1001</t>
+  </si>
+  <si>
+    <t>CPU INTEL® CORE™ i3-4160 @ 360Ghz</t>
+  </si>
+  <si>
+    <t>IT20190270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade RAM and Internal Storage
+</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-03-1002</t>
+  </si>
+  <si>
+    <t>Gebby Jalandoni, Kervic Biñas, Ladylyn Salavante, Rochelle Medina, Alma Gabitoya, Henne Tanan, Jason</t>
+  </si>
+  <si>
+    <t>3-In-1 Printer ( Print, Copy Scan ) , Continuous Ink</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>G2010</t>
+  </si>
+  <si>
+    <t>3-in-1 Printer (Print,Copy,Scan) , Continuous ink</t>
+  </si>
+  <si>
+    <t>KMFJ19520</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>7250.00 PHP</t>
+  </si>
+  <si>
+    <t>The printer is double feeding or feeding multiple sheets of paper at one time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Overall Print out report is estimated over 50,000 sheets of paper (Please see attached file of the report). </t>
+  </si>
+  <si>
+    <t>Need to Replace Auto Sheet Feeder Parts inside the printer (Please see sample image attached.)</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-03-1003</t>
+  </si>
+  <si>
+    <t>Cristy Cesar</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-7100 4GB 64-bit OS</t>
+  </si>
+  <si>
+    <t>IT20190035</t>
+  </si>
+  <si>
+    <t>Slow or long Microsoft Windows startup. Slow opening of Applications and Programs. Sometimes application is not responding properly.</t>
+  </si>
+  <si>
+    <t>HDD Health is 0 percent base on the Software we use to determine the HDD(please see attached file of the report)</t>
+  </si>
+  <si>
+    <t>It is recommended to backup files immediately and Replace SSD Drive for Better performance of Processing of information.</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-03-1005</t>
+  </si>
+  <si>
+    <t>Hennelen Tanan</t>
+  </si>
+  <si>
+    <t>Laptop AMD A9-9425 Radeon R5, 5 Compute cores 2C + 3G 3.10GHz 4GB RAM 64 Bit OS 500GB HDD</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Asus VivoBook X540B</t>
+  </si>
+  <si>
+    <t>J6N0GR03E693245</t>
+  </si>
+  <si>
+    <t>2019-04-16</t>
+  </si>
+  <si>
+    <t>Laptop performance running slow and random freezing when doing multiple task due to insufficient memory usage</t>
+  </si>
+  <si>
+    <t>Windows 10 takes so much RAM on booting Operating System and startup applications and may cause memory leak.</t>
+  </si>
+  <si>
+    <t>Upgrade RAM from 4gb to 8gb memory which enables a faster computer and helps the system to install other programs with huge memory requirements.</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-03-1006</t>
+  </si>
+  <si>
+    <t>Upgrade RAM and Internal Storage</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-05-1001</t>
+  </si>
+  <si>
+    <t>Ms. Gayle, Ms. Cristy, Ms. Syndey, Ms. Marian, Ms. Prency, Ms. Zyndyryn, Ms. Sherny (Group A)</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>L355</t>
+  </si>
+  <si>
+    <t>IT20190304</t>
+  </si>
+  <si>
+    <t>Printer error (After successful multiple pages of paper is printed, it notifies paper jam or incorrect loading of paper even if the paper is loaded correctly on the Paper tray)</t>
+  </si>
+  <si>
+    <t>We suspect for Mechanical Problems on printer parts needs to be replace or repaired since we already clean all the printer parts and perform software maintenance and also the overall printing of pages life span use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Printer check up to service centers. </t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-05-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trading Personnel
+</t>
+  </si>
+  <si>
+    <t>UPS 1200</t>
+  </si>
+  <si>
+    <t>Prolink</t>
+  </si>
+  <si>
+    <t>PRO1201SFC</t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
+  </si>
+  <si>
+    <t>UPS can no longer support the Trading's Network Cabinet after power outage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defective/ End of useful life of Battery
+</t>
+  </si>
+  <si>
+    <t>Battery for Replacement and conduct proper use of UPS to end user after installation.</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-05-1003</t>
+  </si>
+  <si>
+    <t>Ms Ladylyn Salavante</t>
+  </si>
+  <si>
+    <t>UPS 650VA</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>UPS-650VA</t>
+  </si>
+  <si>
+    <t>3100267368A9779500121</t>
+  </si>
+  <si>
+    <t>UPS can no longer support the Computer of Ms. Ladylyn Salavante after a power outage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defective/ End of useful life </t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-07-1001</t>
+  </si>
+  <si>
+    <t>Ms. Gebby Jalandoni</t>
+  </si>
+  <si>
+    <t>Blurred/Faded When printing a document or a file both colored and Black.</t>
+  </si>
+  <si>
+    <t>Printer Cartridge Clogged (Color and Black). Canon print heads can clog
+due to ink or dust drying up and collecting in the nozzle.</t>
+  </si>
+  <si>
+    <t>Replace Cartridge (Color and Black).</t>
+  </si>
+  <si>
+    <t>Performed Software Head Cleaning, Deep Cleaning,
+Ink Flushing, Manual Head Cleaning, Manual Unclogging (Using Syringe), Manual
+Unclogging (Using Hotwater).</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>NA-2022-07-1001</t>
+  </si>
+  <si>
+    <t>Yoorekka</t>
+  </si>
+  <si>
+    <t>Acer Iconia Tab 10</t>
+  </si>
+  <si>
+    <t>A6002</t>
+  </si>
+  <si>
+    <t>NTLCBSP001710075188F00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No power even when it plugin </t>
+  </si>
+  <si>
+    <t>Possible of board malfunction after not turning on the tablet for a long time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For replacement </t>
+  </si>
+  <si>
+    <t>NA-2022-07-1002</t>
+  </si>
+  <si>
+    <t>Laptop Tab (Lenovo Ideapad Yoga 11)</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>EB33250097</t>
+  </si>
+  <si>
+    <t>Laptop won’t turn on even when plugged in and no LED indicator is active</t>
+  </si>
+  <si>
+    <t>It could have faulty power board, battery, motherboard, video card or RAM or Charger port not working properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be open the chassis and check all of the components inside if also contaminate by a sticky substance  </t>
+  </si>
+  <si>
+    <t>Tablet’s Charger is also missing</t>
+  </si>
+  <si>
+    <t>NA-2022-07-1003</t>
+  </si>
+  <si>
+    <t>Laptop Toshiba 15", Intel Core I7 4610M 4th Gen, 8GB RAM 120 GB SSD Windows 10</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>TECRA A50-A Series</t>
+  </si>
+  <si>
+    <t>3F030294H</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>14732.14 PHP</t>
+  </si>
+  <si>
+    <t>Laptop Battery Drains Fast</t>
+  </si>
+  <si>
+    <t>Experienced Power issue with this device it may simply be due to its age and not properly discharge from the socket and may cause of shorten battery lifespan.</t>
+  </si>
+  <si>
+    <t>Changing power configuration and set performance level to low and also checked the Battery status monitoring to identify Battery history Logs.</t>
+  </si>
+  <si>
+    <t>The Laptop is working but if there is no way to fix this issue, it must replace the battery pack</t>
+  </si>
+  <si>
+    <t>NA-2022-07-1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Laptop </t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>00196-125-403-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Display (with LED indicator)/ Hard Disk not working / Broken Body Chassis </t>
+  </si>
+  <si>
+    <t>Faulty Connector between Motherboard and monitor</t>
+  </si>
+  <si>
+    <t>No Battery Pack</t>
+  </si>
+  <si>
+    <t>NA-2022-07-1005</t>
+  </si>
+  <si>
+    <t>Laptop HP 15.6 2.10 GHz Intel Pentium Dual-Core Processor T4300 3GB DDR2 memory 320GB SATA hard drive Microsoft Windows 7 Home Premium Edition 64-bit</t>
+  </si>
+  <si>
+    <t>G60-535DX</t>
+  </si>
+  <si>
+    <t>2CE9478DTJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot Boot in its Operating System and Encounter Continuous Beeping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This might cause of Corrupted Operating System due to memory didn’t seated properly on the slot and causes beeping behavior </t>
+  </si>
+  <si>
+    <t>Need to Open the laptop and get rid the dust, remove memory, clean the copper and re-insert on the slot, also apply thermal paste.</t>
+  </si>
+  <si>
+    <t>For further diagnostic to IT Hardware</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-07-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Power Supply </t>
+  </si>
+  <si>
+    <t>electron</t>
+  </si>
+  <si>
+    <t>ATX-600W</t>
+  </si>
+  <si>
+    <t>IT20190385</t>
+  </si>
+  <si>
+    <t>Rochelle Medina</t>
+  </si>
+  <si>
+    <t>When Turning on the Computer, there is no display on the monitor but the System unit is working (Lights and CPU fan are functioning)
+already test troubleshooting steps but not working
+1. Check Monitor and cables if working properly.
+2. Hold power button up to 10 seconds to completely drain residual electricity that cause no display to monitor
+3. Reset the RAM module.
+4. Cleaning of the RAM module.
+5. Replace spare Ram module.
+6. Reset Bios to default setting</t>
+  </si>
+  <si>
+    <t>Power Supply Failure.</t>
+  </si>
+  <si>
+    <t>We recommend to replace new Power Supply to avoid damage the other components of the system unit</t>
+  </si>
+  <si>
+    <t>We already tested a spare power supply and it worked.</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-08-1001</t>
+  </si>
+  <si>
+    <t>Babylyn Providencia</t>
+  </si>
+  <si>
+    <t>CPU Intel Core i3-4160 2GB RAM 32-bit OS</t>
+  </si>
+  <si>
+    <t>IT20190281</t>
+  </si>
+  <si>
+    <t>no damage done to the equipment but need to upgrade to avoid delay in our work/task and in using systems</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>CENPRI-S-2022-08-1001</t>
+  </si>
+  <si>
+    <t>Jushkyle/Mark Delos Santos</t>
+  </si>
+  <si>
+    <t>Power AC Adaptor</t>
+  </si>
+  <si>
+    <t>DZD626 - 12V - 3A</t>
+  </si>
+  <si>
+    <t>IT20190363</t>
+  </si>
+  <si>
+    <t>Video Recorder Suddenly off and No power Distribute to the Devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We already checked it to the Electrical Department in the Plant site and they recommend replacing the new Power Supply to avoid damage to the other components of the system unit.
+</t>
+  </si>
+  <si>
+    <t>Used to Power the CCTV Video Recorder System.</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-08-1002</t>
+  </si>
+  <si>
+    <t>IT Department</t>
+  </si>
+  <si>
+    <t>UPS-650V</t>
+  </si>
+  <si>
+    <t>9B1817A29252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS can no longer support from power outage </t>
+  </si>
+  <si>
+    <t>Defective/ End of useful life of Battery, UPS didn't have a "Click" sound when you plug in the Socket which means that the battery is not engaging in the board.</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-09-1001</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Cliptech</t>
+  </si>
+  <si>
+    <t>RZKZ47</t>
+  </si>
+  <si>
+    <t>IT20190009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard Malfunction </t>
+  </si>
+  <si>
+    <t>Unresponsive keys</t>
+  </si>
+  <si>
+    <t>for replacement</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-09-1002</t>
+  </si>
+  <si>
+    <t>Ladylyn Salavante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wired Mouse </t>
+  </si>
+  <si>
+    <t>A4Tech</t>
+  </si>
+  <si>
+    <t>OP-720</t>
+  </si>
+  <si>
+    <t>PH1708049555</t>
+  </si>
+  <si>
+    <t>Malfunctioning</t>
+  </si>
+  <si>
+    <t>unclickable buttons and mouse pointer is stuck</t>
+  </si>
+  <si>
+    <t>for Replacement</t>
+  </si>
+  <si>
+    <t>2022-10-27</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-10-1001</t>
+  </si>
+  <si>
+    <t>Kervic Biñas</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>SECURE</t>
+  </si>
+  <si>
+    <t>IT20190278</t>
+  </si>
+  <si>
+    <t>Power Lights and Power suddenly off.</t>
+  </si>
+  <si>
+    <t>AVR Power Cable and Plug Loose Contact.</t>
+  </si>
+  <si>
+    <t>For Repair to Electrical Dept. (Plant Site)</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-01-1001</t>
+  </si>
+  <si>
+    <t>Generic Power Supply 700 watts ATX</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>IT20190018</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>620.54 PHP</t>
+  </si>
+  <si>
+    <t>PC is not turning on.</t>
+  </si>
+  <si>
+    <t>Power Supply was damaged.</t>
+  </si>
+  <si>
+    <t>Replace the Power Supply</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-02-1001</t>
+  </si>
+  <si>
+    <t>Henry Sia</t>
+  </si>
+  <si>
+    <t>LENOVO THINKPAD E490, Intel Core i5-8265U, 4GB DDR4 / 1TB + 128 SSD, Licensed Windows 10 Home, 14" Full IPS Display, Radeon RX 550X 2GB, No Odd, 3 cell Battery, Multi Format Card Reader HDMI &amp; USB 2.0 &amp; 3.0</t>
+  </si>
+  <si>
+    <t>20N9000FPH</t>
+  </si>
+  <si>
+    <t>PF-13H2WT</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>49990.00 PHP</t>
+  </si>
+  <si>
+    <t>Laptop Screen Blurred and Irregular pixelization or distortion.</t>
+  </si>
+  <si>
+    <t>LCD Display Problem</t>
+  </si>
+  <si>
+    <t>For Repair and Replacement of LCD (JOB ORDER)</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-02-1002</t>
+  </si>
+  <si>
+    <t>Charmaine Rei P. Ortaliz</t>
+  </si>
+  <si>
+    <t>Intel Core i3-4160 @3.60GHz, 4GB RAM,</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>IT20190202</t>
+  </si>
+  <si>
+    <t>Computer runs slow and frequently freezing</t>
+  </si>
+  <si>
+    <t>Computer starts to slow down performance from the startup until shutdown. The computer's poor performance was caused by being overloaded with temporary data or programs using its insufficient memory and slow read/ write performance of the Hard Disk.</t>
+  </si>
+  <si>
+    <t>Enduser open multiple Excel-Word documents and other programs that are running in Windows10 Platform at the same time, 4GB memory is not enough to handle the Operating System alone. We are recommending to put additional 8GB memory on her computer and replace the Hard Disk to SSD where the OS is installed and Hard disk for data storage only</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-03-1001</t>
+  </si>
+  <si>
+    <t>Prency Francisco</t>
+  </si>
+  <si>
+    <t>EPSON</t>
+  </si>
+  <si>
+    <t>SMVK006903</t>
+  </si>
+  <si>
+    <t>Printer function (Paper Jam) and Paper Misalignment (While Printing, the paper moves slowly to the left side that cause misalignment of Printed text)</t>
+  </si>
+  <si>
+    <t>Mechanical parts and rollers worn out problem</t>
+  </si>
+  <si>
+    <t>For Repair (JOB ORDER)</t>
+  </si>
+  <si>
+    <t>Checked by: Jushkyle Jambongana</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2022-07-1003</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Printer HP 615 Smart Tank All In One</t>
+  </si>
+  <si>
+    <t>SNPRC-1804-02</t>
+  </si>
+  <si>
+    <t>HP 615 Smart Tank All in one</t>
+  </si>
+  <si>
+    <t>CN 19F4S3MV</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>10812.50 PHP</t>
+  </si>
+  <si>
+    <t>Printer display that needs to remove or reinstall the black cartridge as a result printer won’t be able to print any documents.</t>
+  </si>
+  <si>
+    <t>This HP Printer won’t recognize the new generic ink and may damage the entire cartridge system. The latest HP Printer products launch cartridge protection settings. This system locks original ink cartridges into a specific printer so you won’t be able to use them with a different printer.</t>
+  </si>
+  <si>
+    <t>For replacement of the ink cartridge and possibly also the hose so no generic ink residue remains inside the unit.</t>
+  </si>
+  <si>
+    <t>2023-04-12</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-04-1001</t>
+  </si>
+  <si>
+    <t>UPS 720VA</t>
+  </si>
+  <si>
+    <t>IT20190194 / 231704701502030</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>UPS can no longer support the Computer of Ms. Rochelle Medina after a power outage.</t>
+  </si>
+  <si>
+    <t>Defective/ End of useful life</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>CENPRI-S-2023-04-1001</t>
+  </si>
+  <si>
+    <t>Merry Michelle Dato , Alma Lucerna, Carlo Leonardia</t>
+  </si>
+  <si>
+    <t>9B1932A02357</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2790.00 PHP</t>
+  </si>
+  <si>
+    <t>UPS can no longer support from power outage</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-05-1001</t>
+  </si>
+  <si>
+    <t>Admin/HR/Purchasing/Accounting Department</t>
+  </si>
+  <si>
+    <t>Alma Bella Redocto Gabitoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer function - Not Feeding/Printing Paper </t>
+  </si>
+  <si>
+    <t>Printer Pick up roller is worn out and spring is loose.</t>
+  </si>
+  <si>
+    <t>For Replacement of Printer Roller and Spring</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-05-1002</t>
+  </si>
+  <si>
+    <t>CPU Intel ® Core™ i3-4150 CPU @ 3.50Ghz</t>
+  </si>
+  <si>
+    <t>Rise</t>
+  </si>
+  <si>
+    <t>IT-20190007</t>
+  </si>
+  <si>
+    <t>Slow processing of Applications and Softwares and Multitasking issues (Lag and Hangs when opening multiple excel files)</t>
+  </si>
+  <si>
+    <t>Need to Upgrade Computer Memory and Hard Disk Drive to SSD</t>
+  </si>
+  <si>
+    <t>For Upgrade of Computer Memory and Hard Disk Drive to SSD</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-05-1003</t>
+  </si>
+  <si>
+    <t>CPU Pentium, RAM(2GB), 64 Bit OS, 500GB HD</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>IT20190049</t>
+  </si>
+  <si>
+    <t>Power Supply Unit Overheat when Computer turns on.</t>
+  </si>
+  <si>
+    <t>Power Supply Capacitors are bulky that causes the power supply to overheat in a period of time.</t>
+  </si>
+  <si>
+    <t>Replacement of Power Supply Unit</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-05-1004</t>
+  </si>
+  <si>
+    <t>UPS - 650VA</t>
+  </si>
+  <si>
+    <t>IT20190350</t>
+  </si>
+  <si>
+    <t>UPS can no longer support from power outage.</t>
+  </si>
+  <si>
+    <t>Defective/ End of useful life.</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-08-1001</t>
+  </si>
+  <si>
+    <t>Ma. Milagros Arana</t>
+  </si>
+  <si>
+    <t>Mouse M20 Penble 800 DPI High Resolution</t>
+  </si>
+  <si>
+    <t>Penble</t>
+  </si>
+  <si>
+    <t>IT20190051</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>Cannot detected to usb laptop ports (Not functioning)</t>
+  </si>
+  <si>
+    <t>usb chord and sensor issues are defected that causes to not working properly.</t>
+  </si>
+  <si>
+    <t>For Replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a freebie of Laptop. </t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-08-1002</t>
+  </si>
+  <si>
+    <t>Laptop Keyboard “\” key is stuck randomly</t>
+  </si>
+  <si>
+    <t>Removed laptop keyboard’s module then brushed the affected key after that detached Keyboard’s pin and scratched with eraser and disabled Toggle and Sticky Keys in the Control Panel and updated both Operating System and Lenovo Keyboard’s latest drivers at the same time.</t>
+  </si>
+  <si>
+    <t>After many times of deep diagnosis of his laptop the issue still persists and need to check up on the Laptop on the Service Provider for immediate resolution.</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-08-1003</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>IT20190103</t>
+  </si>
+  <si>
+    <t>Power Supply cannot provide proper power voltage output to turn on the Computer.</t>
+  </si>
+  <si>
+    <t>Power Supply capacitors are defective (it exhibits corrosion and bulge caps) that can cause more damage to the CPU if they continue using it.</t>
+  </si>
+  <si>
+    <t>Replace new Power Supply Unit for Desktop Computer</t>
+  </si>
+  <si>
+    <t>2023-08-17</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-08-1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer unstable Power (Suddenly turns off) / Print head not moving. </t>
+  </si>
+  <si>
+    <t>After inspection (Disassembly of printer unit) printer head ink leaks beside the flex cable that cause power and printer not working (Please see photos attach)</t>
+  </si>
+  <si>
+    <t>For Job Order Request (for further diagnosis and repair to Printer service center)</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-11-1001</t>
+  </si>
+  <si>
+    <t>Carlo Leonardia</t>
+  </si>
+  <si>
+    <t>Laptop Core i7, RAM(4GB), 64 bit, x64 Based  Processor HDD 1TB</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>X510U</t>
+  </si>
+  <si>
+    <t>J5NDCX11W504217</t>
+  </si>
+  <si>
+    <t>Finah Mel Divina</t>
+  </si>
+  <si>
+    <t>Hard Disk is not detected in Computer BIOS (Basic Input Output System) which also cannot Boot the Windows10 Operating System.</t>
+  </si>
+  <si>
+    <t>Upon checking the BIOS setting, cleaning both Serial ATA ribbon and power/data port of the Hard Disk. After taking a deep scanner Using the Hard Disk Sentinel utility and showing an error code that signifies drive failure display with multiple bad sectors in the disk surface.
+S.M.A.R.T error occurred on the Hard Drive during the test. A    S.M.A.R.T is a prediction that the disk is soon to fail and It might be the cause for the system bios to repel the Hard Disk on its system to prevent data loss.</t>
+  </si>
+  <si>
+    <t>Replace new Storage Device in SSD 2.5inch form factor</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-11-1002</t>
+  </si>
+  <si>
+    <t>When in Printing Operation, the printer head sounds like it's grinding as it tries to move along the rails and causes ink leaks on paper and when printing it stops in the middle of operation (with no error) 
+[Already Disassemble the Printer check if there's any paper jams, cleaning of Sensors (Encoder Strip, Encoder Disk)]</t>
+  </si>
+  <si>
+    <t>Printer Carriage is unsteady/not fixed in place that causes the grinding sound when printing. Sensors also need to check (try replacing spare parts) that probably cause the printing stops in the middle of operation.</t>
+  </si>
+  <si>
+    <t>Need for Checkup to CANON Accredited Service Centers</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-12-1001</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
   <si>
     <t>External Hard Drive 1TB</t>
   </si>
   <si>
-    <t>SEAGATE</t>
-  </si>
-  <si>
-    <t>SRD00F1</t>
-  </si>
-  <si>
-    <t>NA9VR3ZD</t>
-  </si>
-  <si>
-    <t>Lost July 13, 2020 when we process the back up files to the external drive it does not function</t>
-  </si>
-  <si>
-    <t>The hard drive cannot open? Ticking or clicking sound (Scratching)</t>
-  </si>
-  <si>
-    <t>Unrepairable/Physical damage on internal platter</t>
-  </si>
-  <si>
-    <t>2020-09-24</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-09-1001</t>
-  </si>
-  <si>
-    <t>Jonah Faye Benares</t>
-  </si>
-  <si>
-    <t>Laptop 14inches, Intel Core i5-5200U CPU @ 2.20GHz, 4GB RAM, 1TB HDD</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>NXV9USP018602033587600</t>
-  </si>
-  <si>
-    <t>I arrived at the office and immediately turned on my laptop. When I use the mouse and keyboard to check it, it doesn't respond well and some parts are blinking. I had Jushkyle checked it, he restarted twice and it was fine. But after a while it came back again. Already tried two different mouse and track pad, also disabled the 3rd party keyboard and used its built in keyboard but it's still the same. Also tried formatting it but wasn't done because I cannot control it anymore.</t>
-  </si>
-  <si>
-    <t>Not responding well.</t>
-  </si>
-  <si>
-    <t>To be repaired to check the source of the damage (software of hardware).</t>
-  </si>
-  <si>
-    <t>2020-11-24</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2020-11-1001</t>
-  </si>
-  <si>
-    <t>Alma Bella  Gabitoya</t>
-  </si>
-  <si>
-    <t>VGA</t>
-  </si>
-  <si>
-    <t>IT20190295</t>
-  </si>
-  <si>
-    <t>Alma Bella Redocto Gabitoya</t>
-  </si>
-  <si>
-    <t>The VGA is not functioning well.</t>
-  </si>
-  <si>
-    <t>The Monitor is not clear</t>
-  </si>
-  <si>
-    <t>Change the VGA</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2021-01-1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Babylyn Providencia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printer Cord </t>
-  </si>
-  <si>
-    <t>IT20190388</t>
-  </si>
-  <si>
-    <t>2019-10-08</t>
-  </si>
-  <si>
-    <t>Babylyn Providencia</t>
-  </si>
-  <si>
-    <t>unable to print</t>
-  </si>
-  <si>
-    <t>-The pc/laptop cant detect the cord.
--Tried the cord to different printer and still cant detect it.</t>
-  </si>
-  <si>
-    <t>Replace item</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2021-02-1001</t>
-  </si>
-  <si>
-    <t>Syndey Sinoro</t>
-  </si>
-  <si>
-    <t>UPS 650VA</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>Back UPS 650</t>
-  </si>
-  <si>
-    <t>9B1646A05761</t>
-  </si>
-  <si>
-    <t>malfunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ups have constant beeping generally means the ups is very low on battery power and battery did not charge anymore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">replace new battery </t>
-  </si>
-  <si>
-    <t>2021-03-10</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2021-03-1001</t>
-  </si>
-  <si>
-    <t>Ruth Jan Destacamento</t>
-  </si>
-  <si>
-    <t>UPS 720VA</t>
-  </si>
-  <si>
-    <t>ILogic</t>
-  </si>
-  <si>
-    <t>Blazer 720VA</t>
-  </si>
-  <si>
-    <t>All the equipment of Ms. Ruth shutdown in times of brownout.</t>
-  </si>
-  <si>
-    <t>The UPS is not charging.</t>
-  </si>
-  <si>
-    <t>Replace Battery</t>
-  </si>
-  <si>
-    <t>2021-03-12</t>
-  </si>
-  <si>
-    <t>CENPRI-B-2021-03-1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zyndyryn </t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>IT20190250</t>
-  </si>
-  <si>
-    <t>All the equipment of Ms. Zyndyryn shutdown in times of brownout. 
-Ms. Zyndyryn and Ms. Marian shares UPS which makes the battery to drain.</t>
-  </si>
-  <si>
-    <t>Replace battery</t>
+    <t>Western Digital Elements</t>
+  </si>
+  <si>
+    <t>WDBUZG0010BBK</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>WX71AA9KJZXE</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2760.00 PHP</t>
+  </si>
+  <si>
+    <t>adads</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>CENPRI-B-2023-12-1002</t>
+  </si>
+  <si>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>Monitor 15.5 inches</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>E1670Swu</t>
+  </si>
+  <si>
+    <t>GCRF21A002880</t>
+  </si>
+  <si>
+    <t>dfgdfg</t>
+  </si>
+  <si>
+    <t>gdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1691,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -764,22 +1704,22 @@
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="37.8479" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="81.265869" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="119.11377" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="244.083252" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="38.847656" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15.996094" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="15.996094" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="13.139648" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="32.991943" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="568.575439" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="135.53833" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="85.979004" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="245.22583" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="342.059326" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="403.330078" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="114.257813" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -880,35 +1820,33 @@
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="U3" s="1"/>
     </row>
@@ -917,53 +1855,53 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="U4" s="1"/>
     </row>
@@ -972,53 +1910,53 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -1027,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -1039,43 +1977,43 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U6" s="1"/>
     </row>
@@ -1084,53 +2022,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="U7" s="1"/>
     </row>
@@ -1139,51 +2079,53 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="U8" s="1"/>
     </row>
@@ -1192,53 +2134,51 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="U9" s="1"/>
     </row>
@@ -1247,55 +2187,51 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="U10" s="1"/>
     </row>
@@ -1304,55 +2240,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>231701504407</v>
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="O11" s="3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -1361,55 +2301,2184 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>5.4780118390036E+14</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20187</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U12" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
